--- a/docs/电脑装机.xlsx
+++ b/docs/电脑装机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="i5 8400" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,116 @@
   </si>
   <si>
     <t>机箱 + 电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/26639598221.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>489 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京豆-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>131 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券-6 招商支付-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/1312126.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1149</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（优惠券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>250-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>= 1129</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星显示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +286,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +333,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -229,22 +346,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,51 +667,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="31.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="12">
         <v>2079</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>378</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -599,34 +722,34 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10">
-        <v>499</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>249</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1099</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -635,10 +758,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="10">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="4">
+        <v>4425</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="1"/>
@@ -654,6 +784,7 @@
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D1" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -662,14 +793,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/docs/电脑装机.xlsx
+++ b/docs/电脑装机.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="i5 8400" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="i9" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,32 +184,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.jd.com/1312126.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1149</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（优惠券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>250-20</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华硕（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ASUS</t>
     </r>
     <r>
       <rPr>
@@ -230,12 +222,518 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>= 1129</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星显示器</t>
+      <t xml:space="preserve">PRIME Z390-A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英特尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i9-9900K CPU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套装</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + CPU</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标 + 键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100000634429.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100001691640.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100000542145.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（满999减120）=1779</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/25612010530.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影驰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DDR4 4000 8G x 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影驰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DDR4-3600 8G*2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/25612010531.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/6959189.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>威刚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(ADATA) XPG-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龙耀系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DDR4 3600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 16G(8Gx2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台式机内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灯条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>威刚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(ADATA) XPG-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>威龙系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DDR4 3600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 16G(8Gx2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台式机内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/6959207.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +831,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -355,12 +853,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +865,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -668,7 +1164,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -680,26 +1176,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="13">
         <v>2079</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
@@ -793,49 +1289,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9">
+        <v>5599</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="9">
+        <v>4499</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1479</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1279</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1299</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1199</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
+        <v>500</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
+        <v>250</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
+        <v>400</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12">
+        <f>C1+C3+C8+C9+C10</f>
+        <v>8228</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="G1" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/docs/电脑装机.xlsx
+++ b/docs/电脑装机.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="i5 8400" sheetId="1" r:id="rId1"/>
-    <sheet name="i9" sheetId="3" r:id="rId2"/>
+    <sheet name="i5" sheetId="1" r:id="rId1"/>
+    <sheet name="i7" sheetId="4" r:id="rId2"/>
+    <sheet name="i9" sheetId="3" r:id="rId3"/>
+    <sheet name="服务器" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鼠标 + 键盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,157 +403,325 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影驰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DDR4 4000 8G x 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕（ASUS）PRIME Z390-A 主板 大师系列+英特尔 i7-9700K CPU 板U套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100001270209.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100000634417.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100000542145.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（满999减120）=1779 (每满100元，可减10)=1719</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/6959207.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威刚(ADATA) XPG-威龙系列 DDR4 3600频 16G(8Gx2)套装 台式机内存(金色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://item.jd.com/100001691640.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://item.jd.com/100000542145.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1899</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（满999减120）=1779</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.jd.com/25612010530.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影驰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> DDR4 4000 8G x 2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影驰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> DDR4-3600 8G*2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/25612010531.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.jd.com/6959189.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>威刚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(ADATA) XPG-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>龙耀系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> DDR4 3600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 16G(8Gx2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套装</t>
+    <t>威刚(ADATA) XPG-龙耀系列 DDR4 3600频 16G(8Gx2)套装 台式机内存(RGB灯条)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100001691640.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: i5 8500 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.0GHz*6核6线程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：华硕（ASUS）TUF B360M-PLUS GAMING S主板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/4378671.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华硕（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ASUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TUF X299 MARK 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主板（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Intel X299/LGA 2066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100000863199.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威刚(ADATA) XPG-威龙系列Z1 DDR4 2666频 16GB(8GB×2) 台式机内存(红色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/7266468.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/8445417.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a220m.1000858.1000725.39.18e14679OcqvOj&amp;id=575421029716&amp;skuId=3944446694559&amp;areaId=440300&amp;standard=1&amp;user_id=3918712328&amp;cat_id=2&amp;is_b=1&amp;rn=e2cd23094a47202574cfb54fbc987e4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加主板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，升级成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台主机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先上</t>
     </r>
     <r>
       <rPr>
@@ -575,110 +741,63 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>台式机内存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(RGB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灯条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>威刚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(ADATA) XPG-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>威龙系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> DDR4 3600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 16G(8Gx2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>套装</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gx2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升级到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 32G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存（加两条</t>
     </r>
     <r>
       <rPr>
@@ -698,42 +817,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>台式机内存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/6959207.html</t>
+      <t>8Gx2 的内存）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +876,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -800,7 +898,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -823,6 +921,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -831,17 +955,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -856,6 +976,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,9 +1007,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1161,119 +1313,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="21">
         <v>2079</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="20"/>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>378</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4">
         <v>249</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1099</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="4">
+    <row r="8" spans="1:5">
+      <c r="C8" s="3">
         <v>4425</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2056</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12">
+        <v>739</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
+        <v>489</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="12">
+        <v>249</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="3">
+        <f>C12+C14+C15+C16</f>
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1281,18 +1517,148 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D1" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7">
+        <v>4599</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7">
+        <v>3299</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1199</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>500</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>250</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>400</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8">
+        <f>C1+C3+C4+C5+C6</f>
+        <v>6948</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="G1" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1306,157 +1672,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>5599</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7">
+        <v>4099</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9">
-        <v>4499</v>
-      </c>
-      <c r="G1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="7">
+        <v>1795</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1189</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>500</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>250</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7">
+        <v>400</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7">
+        <f>C1+C3+C4+C5+C6</f>
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5599</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4099</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1795</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C23" s="7">
         <v>1479</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1279</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="9" t="s">
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>500</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>250</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9">
-        <v>1299</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1199</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
-        <v>500</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
-        <v>250</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="C26" s="7">
         <v>400</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12">
-        <f>C1+C3+C8+C9+C10</f>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27">
+        <f>C21+C23+C24+C25+C26</f>
         <v>8228</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="G1" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="D5" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D21" r:id="rId5"/>
+    <hyperlink ref="D23" r:id="rId6"/>
+    <hyperlink ref="G21" r:id="rId7"/>
+    <hyperlink ref="G22" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1">
+        <v>2799</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>